--- a/data/trans_dic/CONS_TIR-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_TIR-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,36%</t>
         </is>
       </c>
     </row>
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>0,0; 1,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,11; 1,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,74; 7,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,19</t>
+          <t>0,0; 0,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,11; 1,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,89; 6,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,09; 0,95</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,78%</t>
         </is>
       </c>
     </row>
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,61; 4,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 1,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>0,0; 2,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,13; 5,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,47; 6,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>1,05; 4,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,17; 3,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,06; 3,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,84; 3,21</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>2,69%</t>
         </is>
       </c>
     </row>
@@ -905,54 +906,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>0,6; 3,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,34; 3,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0,31; 2,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>3,71; 7,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,27; 8,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,79</t>
+          <t>2,53; 6,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>2,44; 4,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,64; 5,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,39</t>
+          <t>1,61; 4,0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>4,5%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1016,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,9</t>
+          <t>0,29; 1,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,89</t>
+          <t>0,17; 2,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,35</t>
+          <t>0,55; 3,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,57</t>
+          <t>4,32; 7,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,25; 6,92</t>
+          <t>6,58; 13,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,61</t>
+          <t>5,5; 10,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,42</t>
+          <t>2,34; 4,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,97; 4,48</t>
+          <t>1,97; 6,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,11</t>
+          <t>3,22; 6,08</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>5,16%</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,78</t>
+          <t>0,59; 2,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,8</t>
+          <t>0,4; 2,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 3,64</t>
+          <t>1,56; 4,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,3; 4,87</t>
+          <t>7,4; 11,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,92; 5,18</t>
+          <t>11,55; 17,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,43; 5,08</t>
+          <t>4,85; 10,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 3,13</t>
+          <t>4,51; 7,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,06</t>
+          <t>5,99; 9,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,55</t>
+          <t>3,76; 7,09</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>50,94%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>35,39%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>6,81%</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,56</t>
+          <t>0,99; 3,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,2; 2,01</t>
+          <t>0,57; 3,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,56</t>
+          <t>0,99; 3,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,92; 6,97</t>
+          <t>9,34; 14,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,68; 8,03</t>
+          <t>9,33; 82,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,4</t>
+          <t>8,84; 14,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,83; 3,95</t>
+          <t>5,68; 8,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,74; 4,67</t>
+          <t>5,86; 71,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,53; 4,48</t>
+          <t>5,36; 8,65</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>7,7%</t>
         </is>
       </c>
     </row>
@@ -1345,54 +1346,54 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,44</t>
+          <t>0,69; 3,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,74</t>
+          <t>0,95; 5,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,97</t>
+          <t>1,98; 5,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,55; 10,5</t>
+          <t>7,53; 11,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,48; 12,36</t>
+          <t>7,75; 13,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,73; 6,85</t>
+          <t>8,08; 13,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,12; 5,65</t>
+          <t>4,93; 7,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,32; 7,15</t>
+          <t>5,48; 9,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,38; 4,04</t>
+          <t>6,03; 10,01</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1402,47 +1403,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>4,15%</t>
         </is>
       </c>
     </row>
@@ -1455,398 +1456,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,6; 5,42</t>
+          <t>0,96; 1,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,87</t>
+          <t>0,84; 2,16</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,81</t>
+          <t>1,3; 2,29</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,99; 10,19</t>
+          <t>6,46; 8,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,94; 15,53</t>
+          <t>7,83; 39,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,71; 10,56</t>
+          <t>5,52; 7,39</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,83; 6,99</t>
+          <t>3,98; 4,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,08; 8,53</t>
+          <t>4,46; 22,65</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,26; 6,43</t>
+          <t>3,67; 4,72</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>2,0%</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>2,32%</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>2,27%</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>11,56%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>29,6%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>11,68%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>6,35%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>18,26%</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>7,07%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>1,01; 3,3</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>1,33; 3,98</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>1,42; 3,51</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>8,99; 14,59</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>11,23; 67,2</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>9,46; 14,16</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>5,17; 8,13</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>6,86; 44,74</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>5,94; 8,56</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>3,4%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>2,17%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>1,82%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>10,17%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>9,74%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>9,71%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>6,98%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>6,78%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>6,42%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>2,08; 5,24</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>1,03; 3,88</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>0,86; 3,28</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>7,88; 13,35</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>7,88; 12,4</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>7,81; 11,58</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>5,5; 8,74</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>5,36; 8,3</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>5,34; 7,79</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,8%</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>1,41%</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>1,21%</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>6,94%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>11,03%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>6,22%</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>4,38%</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>6,5%</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>3,79%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>1,4; 2,34</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>1,01; 1,9</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>0,92; 1,58</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>6,03; 7,91</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>8,19; 20,61</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>5,58; 6,89</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>3,91; 4,96</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>4,86; 13,27</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>3,44; 4,19</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
@@ -1856,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de medicamentos para la tiroides</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16/24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5649</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5354</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11004</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1210</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1253</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 20893</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2924</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>66; 950</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1362; 14392</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1598</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>135; 1559</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3756; 25674</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>312; 3249</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25/34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1262</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1525</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1634</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>11756</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5487</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2896</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>11756</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>424; 2931</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2857</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5391</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>709; 3275</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4634; 21375</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2212; 10044</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1537; 4874</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5767; 20830</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>3309; 12635</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35/44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1414</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4301</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3025</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>19501</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>10347</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6585</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>23802</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>13372</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>564; 3050</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1066; 10083</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>769; 7424</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3614; 7092</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>13765; 27805</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6297; 16153</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4697; 8959</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>16715; 33921</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8015; 19878</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45/54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>8029</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>4480</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>7994</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>35915</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>21420</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>8995</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>43944</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>25901</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>409; 2228</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1082; 17686</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1622; 9461</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>5965; 10954</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>26621; 52747</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>15335; 29804</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>6477; 11535</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>20332; 64987</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>18548; 35036</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55/64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1683</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6863</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>13891</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>44786</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>18377</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>15574</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>49146</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>25240</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>743; 3438</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1354; 9428</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3657; 11719</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>10909; 17586</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>36772; 55069</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>12323; 26317</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>12372; 19725</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>39397; 59461</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>18377; 34661</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65/74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3262</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3446</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>13715</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>230595</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>21941</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>15712</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>233857</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>25387</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1069; 3340</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1187; 6995</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1814; 5958</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>10730; 16690</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>42238; 374350</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>16674; 27788</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>12649; 19200</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>38701; 473896</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>19994; 32237</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 y más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1633</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>3592</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>4957</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>12699</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>24233</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>22643</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>14331</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>27826</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>27600</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>663; 3509</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1447; 8014</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2902; 7600</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>10084; 15695</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>18095; 32659</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>17114; 29556</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>11344; 17722</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>21104; 36671</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>21620; 35864</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>9233</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>29193</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>25191</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>55414</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>372140</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>100530</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>64647</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>401334</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>125721</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>6684; 12285</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>17634; 45462</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>19021; 33561</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>48852; 61190</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>174632; 885573</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>86397; 115664</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>57805; 72331</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>193087; 981673</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>111169; 142829</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_TIR-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_TIR-Edad-trans_dic.xlsx
@@ -801,7 +801,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 2857</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_TIR-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_TIR-Edad-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tiroides</t>
+          <t>Consumo de medicamentos para la tiroides (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1559,7 +1559,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tiroides</t>
+          <t>Consumo de medicamentos para la tiroides (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_TIR-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_TIR-Edad-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,99</t>
+          <t>0,0; 1,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,84</t>
+          <t>0,0; 8,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,52</t>
+          <t>0,12; 1,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 7,81</t>
+          <t>0,75; 8,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,24</t>
+          <t>0,11; 0,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 6,1</t>
+          <t>0,82; 5,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,61; 4,24</t>
+          <t>0,6; 4,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,13; 5,24</t>
+          <t>1,21; 5,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,47; 6,8</t>
+          <t>1,47; 6,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,7</t>
+          <t>1,16; 3,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,06; 3,83</t>
+          <t>1,08; 3,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,22</t>
+          <t>0,68; 3,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,24</t>
+          <t>0,35; 3,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,71; 7,27</t>
+          <t>3,78; 7,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,27; 8,62</t>
+          <t>3,92; 8,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 4,66</t>
+          <t>2,43; 4,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 5,36</t>
+          <t>2,64; 5,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,6</t>
+          <t>0,31; 1,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 2,82</t>
+          <t>0,22; 2,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,32; 7,94</t>
+          <t>3,4; 6,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,58; 13,03</t>
+          <t>6,63; 13,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,34; 4,16</t>
+          <t>2,06; 3,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,97; 6,3</t>
+          <t>2,08; 6,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,71</t>
+          <t>0,62; 2,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,78</t>
+          <t>0,5; 2,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,4; 11,94</t>
+          <t>6,3; 10,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,55; 17,3</t>
+          <t>11,29; 17,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,51; 7,19</t>
+          <t>3,84; 6,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,99; 9,05</t>
+          <t>6,05; 9,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,1</t>
+          <t>1,48; 4,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,57; 3,36</t>
+          <t>0,37; 3,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,34; 14,52</t>
+          <t>9,12; 14,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,33; 82,7</t>
+          <t>9,48; 86,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,68; 8,63</t>
+          <t>5,78; 9,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,86; 71,72</t>
+          <t>5,77; 74,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,64</t>
+          <t>0,63; 3,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,95; 5,28</t>
+          <t>0,94; 5,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,53; 11,72</t>
+          <t>7,63; 11,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,75; 13,98</t>
+          <t>7,57; 13,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,93; 7,7</t>
+          <t>5,11; 7,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,48; 9,52</t>
+          <t>5,47; 9,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,96; 1,76</t>
+          <t>1,01; 1,79</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,16</t>
+          <t>0,85; 2,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,46; 8,09</t>
+          <t>5,92; 7,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,83; 39,7</t>
+          <t>7,79; 42,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1486,12 +1486,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,98; 4,98</t>
+          <t>3,75; 4,63</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,46; 22,65</t>
+          <t>4,52; 22,31</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>173</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>348</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>522</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1766,12 +1766,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0; 1253</t>
+          <t>0; 774</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0; 20893</t>
+          <t>0; 19920</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1781,12 +1781,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>66; 950</t>
+          <t>81; 1016</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1362; 14392</t>
+          <t>1382; 15021</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1796,12 +1796,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>135; 1559</t>
+          <t>160; 1396</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3756; 25674</t>
+          <t>3444; 24114</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1634</t>
+          <t>1715</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2896</t>
+          <t>2977</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1929,7 +1929,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>424; 2931</t>
+          <t>451; 3179</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1944,12 +1944,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>709; 3275</t>
+          <t>823; 3422</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4634; 21375</t>
+          <t>4609; 21010</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1537; 4874</t>
+          <t>1656; 5361</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5767; 20830</t>
+          <t>5869; 21007</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1414</t>
+          <t>1511</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5171</t>
+          <t>5919</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6585</t>
+          <t>7429</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -2092,12 +2092,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>564; 3050</t>
+          <t>710; 3208</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1066; 10083</t>
+          <t>1079; 9843</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -2107,12 +2107,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3614; 7092</t>
+          <t>4188; 8549</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>13765; 27805</t>
+          <t>12660; 27314</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -2122,12 +2122,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4697; 8959</t>
+          <t>5206; 10094</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>16715; 33921</t>
+          <t>16751; 33902</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>1198</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7994</t>
+          <t>7251</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>8995</t>
+          <t>8449</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>409; 2228</t>
+          <t>447; 2827</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1082; 17686</t>
+          <t>1351; 17502</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2270,12 +2270,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5965; 10954</t>
+          <t>5183; 9870</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26621; 52747</t>
+          <t>26830; 55153</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -2285,12 +2285,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6477; 11535</t>
+          <t>6138; 10948</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>20332; 64987</t>
+          <t>21515; 66199</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1683</t>
+          <t>1605</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13891</t>
+          <t>12437</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15574</t>
+          <t>14041</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2418,12 +2418,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>743; 3438</t>
+          <t>809; 2874</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1354; 9428</t>
+          <t>1706; 9598</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2433,12 +2433,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>10909; 17586</t>
+          <t>9572; 15501</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>36772; 55069</t>
+          <t>35916; 54923</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>12372; 19725</t>
+          <t>10796; 17696</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>39397; 59461</t>
+          <t>39739; 59847</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>13715</t>
+          <t>13185</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>15712</t>
+          <t>15985</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2581,12 +2581,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1069; 3340</t>
+          <t>1546; 4723</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1187; 6995</t>
+          <t>766; 7153</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>10730; 16690</t>
+          <t>10558; 16649</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>42238; 374350</t>
+          <t>42924; 390085</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2611,12 +2611,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>12649; 19200</t>
+          <t>12724; 19934</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>38701; 473896</t>
+          <t>38109; 494306</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1633</t>
+          <t>1260</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>12699</t>
+          <t>12711</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>14331</t>
+          <t>13971</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2744,12 +2744,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>663; 3509</t>
+          <t>562; 2806</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1447; 8014</t>
+          <t>1424; 8075</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>10084; 15695</t>
+          <t>10092; 15614</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>18095; 32659</t>
+          <t>17680; 32335</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2774,12 +2774,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>11344; 17722</t>
+          <t>11319; 17636</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>21104; 36671</t>
+          <t>21079; 36870</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>9233</t>
+          <t>9809</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>55414</t>
+          <t>53566</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>64647</t>
+          <t>63375</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -2907,12 +2907,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>6684; 12285</t>
+          <t>7320; 12973</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>17634; 45462</t>
+          <t>17860; 47465</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -2922,12 +2922,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>48852; 61190</t>
+          <t>47239; 59788</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>174632; 885573</t>
+          <t>173681; 937632</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -2937,12 +2937,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>57805; 72331</t>
+          <t>57012; 70433</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>193087; 981673</t>
+          <t>195650; 966642</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_TIR-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_TIR-Edad-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,42 +633,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>2,12%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,53%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,23%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,39%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3,52%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,19%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,53%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,53%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,9%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,19%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>2,79%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>0,36%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>2,62%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 7,25</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,72</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>0,0; 1,01</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 8,43</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,72</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>1,13; 8,54</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,94</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>0,12; 1,53</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,75; 8,15</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,94</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>1,06; 5,96</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0,09; 0,95</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>0,11; 0,98</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,82; 5,73</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0,09; 0,95</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,84%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>1,68%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,84%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>4,59%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2,59%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>2,52%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>3,74%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,59%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>2,39%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1,78%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>2,08%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>2,16%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>1,78%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,96</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>0,6; 4,24</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,96</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>2,43; 7,63</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1,05; 4,75</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>1,21; 5,03</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>1,47; 6,68</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>1,05; 4,75</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>1,3; 4,05</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0,84; 3,21</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>1,16; 3,75</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>1,08; 3,86</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>0,84; 3,21</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,15%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,22%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>1,45%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,38%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,22%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>5,84%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4,16%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>5,35%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>6,04%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>4,16%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>3,51%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2,69%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>3,46%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>3,76%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>2,69%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,29; 2,62</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 2,99</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>0,68; 3,09</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,35; 3,17</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,31; 2,99</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>3,96; 8,31</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2,53; 6,5</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>3,78; 7,72</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>3,92; 8,47</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>2,53; 6,5</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>2,52; 4,97</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1,61; 4,0</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>2,43; 4,7</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>2,64; 5,35</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>1,61; 4,0</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1,91%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,51%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,83%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,28%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,51%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>7,87%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7,68%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>4,75%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>8,87%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>7,68%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>4,95%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4,5%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>2,84%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>4,26%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>4,5%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0,8; 3,91</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,55; 3,19</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>0,31; 1,95</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,22; 2,79</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,55; 3,19</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>5,99; 9,89</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5,5; 10,68</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>3,4; 6,47</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>6,63; 13,62</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>5,5; 10,68</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>3,83; 6,46</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3,22; 6,08</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>2,06; 3,68</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>2,08; 6,41</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>3,22; 6,08</t>
         </is>
       </c>
     </row>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1,55%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,92%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>1,24%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,29%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,92%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>14,15%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7,23%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>8,19%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>14,07%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>7,23%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>7,78%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,16%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>4,99%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>7,48%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>5,16%</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0,75; 3,29</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,56; 4,99</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>0,62; 2,22</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,5; 2,83</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1,56; 4,99</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>11,5; 17,34</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4,85; 10,36</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>6,3; 10,2</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>11,29; 17,26</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>4,85; 10,36</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>6,26; 9,46</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3,76; 7,09</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>3,84; 6,29</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>6,05; 9,1</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>3,76; 7,09</t>
         </is>
       </c>
     </row>
@@ -1183,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>1,53%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1,87%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>2,68%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,57%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,87%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>11,33%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>11,63%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>11,39%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>50,94%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>11,63%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>6,81%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>6,81%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>7,26%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>35,39%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>6,81%</t>
         </is>
       </c>
     </row>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,5; 3,37</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,99; 3,24</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>1,48; 4,52</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,37; 3,44</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,99; 3,24</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>8,47; 14,47</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>8,84; 14,73</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>9,12; 14,38</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>9,48; 86,18</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>8,84; 14,73</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>5,21; 8,6</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5,36; 8,65</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>5,78; 9,05</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>5,77; 74,81</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>5,36; 8,65</t>
         </is>
       </c>
     </row>
@@ -1293,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>2,57%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3,38%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>1,41%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>2,37%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>3,38%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>10,27%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>10,69%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>9,61%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>10,37%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>10,69%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>7,25%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>7,7%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>6,31%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>7,22%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>7,7%</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>1,13; 5,66</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1,98; 5,19</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>0,63; 3,15</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>0,94; 5,32</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>1,98; 5,19</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>7,48; 13,81</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>8,08; 13,95</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>7,63; 11,8</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>7,57; 13,84</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>8,08; 13,95</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>5,51; 9,58</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>6,03; 10,01</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>5,11; 7,96</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>5,47; 9,57</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>6,03; 10,01</t>
         </is>
       </c>
     </row>
@@ -1403,47 +1403,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>1,5%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1,72%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>1,36%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>1,39%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>1,72%</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>8,4%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6,43%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>6,72%</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>16,68%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>6,43%</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>5,07%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>4,15%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>4,17%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>9,26%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>4,15%</t>
         </is>
       </c>
     </row>
@@ -1456,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>1,03; 2,26</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1,3; 2,29</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>1,01; 1,79</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 2,26</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>1,3; 2,29</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>7,4; 9,51</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>5,52; 7,39</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>5,92; 7,5</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>7,79; 42,03</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>5,52; 7,39</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>4,52; 5,72</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>3,67; 4,72</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>3,75; 4,63</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>4,52; 22,31</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>3,67; 4,72</t>
         </is>
       </c>
     </row>
@@ -1590,47 +1590,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1660,47 +1660,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
     </row>
@@ -1713,47 +1713,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>5126</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>173</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>5649</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>894</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>7721</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>348</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>5354</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>12847</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1210</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>522</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>11004</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>1210</t>
         </is>
       </c>
     </row>
@@ -1766,47 +1766,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0; 17502</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2924</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0; 774</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0; 19920</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0; 2924</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>2480; 18752</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1598</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>81; 1016</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1382; 15021</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0; 1598</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>4873; 27481</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>312; 3249</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>160; 1396</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>3444; 24114</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>312; 3249</t>
         </is>
       </c>
     </row>
@@ -1823,47 +1823,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>14</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
         </is>
       </c>
     </row>
@@ -1876,47 +1876,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1525</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>1262</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1525</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>13025</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5487</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>1715</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>11756</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>5487</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>13025</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>2977</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>11756</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>7012</t>
         </is>
       </c>
     </row>
@@ -1929,47 +1929,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5391</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>451; 3179</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0; 5391</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>6878; 21616</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2212; 10044</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>823; 3422</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>4609; 21010</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>2212; 10044</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>7107; 22110</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3309; 12635</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>1656; 5361</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>5869; 21007</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>3309; 12635</t>
         </is>
       </c>
     </row>
@@ -1986,47 +1986,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>32</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>40</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>24</t>
         </is>
       </c>
     </row>
@@ -2039,47 +2039,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>4252</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3025</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>1511</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>4301</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3025</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>21808</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>10347</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>5919</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>19501</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>10347</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>26060</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>13372</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>7429</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>23802</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>13372</t>
         </is>
       </c>
     </row>
@@ -2092,47 +2092,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1073; 9656</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>769; 7424</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>710; 3208</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1079; 9843</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>769; 7424</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>14798; 31040</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6297; 16153</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>4188; 8549</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>12660; 27314</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>6297; 16153</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>18689; 36826</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8015; 19878</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>5206; 10094</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>16751; 33902</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>8015; 19878</t>
         </is>
       </c>
     </row>
@@ -2149,14 +2149,14 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
           <t>6</t>
@@ -2164,32 +2164,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>45</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>51</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>42</t>
         </is>
       </c>
     </row>
@@ -2202,47 +2202,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>8081</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4480</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>1198</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>8029</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>4480</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>34752</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>21420</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>7251</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>35915</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>21420</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>42833</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>25901</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>8449</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>43944</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>25901</t>
         </is>
       </c>
     </row>
@@ -2255,47 +2255,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>3372; 16571</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1622; 9461</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>447; 2827</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1351; 17502</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1622; 9461</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>26432; 43665</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>15335; 29804</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>5183; 9870</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>26830; 55153</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>15335; 29804</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>33178; 55920</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>18548; 35036</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>6138; 10948</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>21515; 66199</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>18548; 35036</t>
         </is>
       </c>
     </row>
@@ -2312,34 +2312,34 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>74</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
           <t>84</t>
@@ -2347,12 +2347,12 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>84</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>41</t>
         </is>
       </c>
     </row>
@@ -2365,47 +2365,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>5687</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6863</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>1605</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>4359</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>6863</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>50892</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>18377</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>12437</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>44786</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>18377</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>56579</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>25240</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>14041</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>49146</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>25240</t>
         </is>
       </c>
     </row>
@@ -2418,47 +2418,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>2749; 12124</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3657; 11719</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>809; 2874</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>1706; 9598</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>3657; 11719</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>41372; 62378</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>12323; 26317</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>9572; 15501</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>35916; 54923</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>12323; 26317</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>45564; 68805</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>18377; 34661</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>10796; 17696</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>39739; 59847</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>18377; 34661</t>
         </is>
       </c>
     </row>
@@ -2475,47 +2475,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>81</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>96</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>70</t>
         </is>
       </c>
     </row>
@@ -2528,47 +2528,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>3529</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3446</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>2800</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>3262</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>3446</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>30605</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>21941</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>13185</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>230595</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>21941</t>
-        </is>
-      </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>34134</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>25387</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
           <t>15985</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>233857</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>25387</t>
         </is>
       </c>
     </row>
@@ -2581,47 +2581,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>1162; 7783</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1814; 5958</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>1546; 4723</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>766; 7153</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>1814; 5958</t>
-        </is>
-      </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
+          <t>22874; 39061</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>16674; 27788</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
           <t>10558; 16649</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>42924; 390085</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>16674; 27788</t>
-        </is>
-      </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
+          <t>26141; 43136</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>19994; 32237</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
           <t>12724; 19934</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>38109; 494306</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>19994; 32237</t>
         </is>
       </c>
     </row>
@@ -2638,47 +2638,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
           <t>75</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
           <t>82</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>70</t>
         </is>
       </c>
     </row>
@@ -2691,47 +2691,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>4258</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>4957</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>1260</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>3592</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>4957</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>26366</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>22643</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>12711</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>24233</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>22643</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>30624</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>27600</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
           <t>13971</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>27826</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>27600</t>
         </is>
       </c>
     </row>
@@ -2744,47 +2744,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>1875; 9379</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2902; 7600</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>562; 2806</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>1424; 8075</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>2902; 7600</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>19195; 35438</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>17114; 29556</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>10092; 15614</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>17680; 32335</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>17114; 29556</t>
-        </is>
-      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>23283; 40447</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>21620; 35864</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>11319; 17636</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>21079; 36870</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>21620; 35864</t>
         </is>
       </c>
     </row>
@@ -2801,47 +2801,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
           <t>52</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
           <t>319</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>275</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
-      </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
           <t>371</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>305</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>261</t>
         </is>
       </c>
     </row>
@@ -2854,47 +2854,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
+          <t>30932</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>25191</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
           <t>9809</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>29193</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>25191</t>
-        </is>
-      </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
+          <t>185169</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>100530</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
           <t>53566</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>372140</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>100530</t>
-        </is>
-      </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
+          <t>216101</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>125721</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
           <t>63375</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>401334</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>125721</t>
         </is>
       </c>
     </row>
@@ -2907,47 +2907,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
+          <t>21154; 46505</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>19021; 33561</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
           <t>7320; 12973</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>17860; 47465</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>19021; 33561</t>
-        </is>
-      </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
+          <t>163103; 209643</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>86397; 115664</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
           <t>47239; 59788</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>173681; 937632</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>86397; 115664</t>
-        </is>
-      </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
+          <t>192928; 243959</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>111169; 142829</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
           <t>57012; 70433</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>195650; 966642</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>111169; 142829</t>
         </is>
       </c>
     </row>
